--- a/schemas/sequencing_examples_reason.xlsx
+++ b/schemas/sequencing_examples_reason.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,9 +439,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
     <col width="80" customWidth="1" min="4" max="4"/>
     <col width="80" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
@@ -583,27 +583,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Horizontal Sequencing</t>
+          <t>Vertical Sequencing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Consequential Sequencing</t>
+          <t>Integrative Sequencing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>electrons can move to higher energy states by absorbing energy</t>
+          <t>The basketball was really flat. That means we can’t play today.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The example indicates a cause-and-effect relationship between two passages. The cause is 'absorbing energy,' and the effect or consequence is 'electrons can move to higher energy states.' The linker 'by' in this context signifies the reason or method by which the action (movement to higher energy states) occurs, establishing a consequential relationship between the two ideas.</t>
+          <t>The use of the linkage word 'That' refers back to previously mentioned sentence.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>then</t>
+          <t>that</t>
         </is>
       </c>
     </row>
@@ -615,27 +615,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Horizontal Sequencing</t>
+          <t>Vertical Sequencing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Consequential Sequencing</t>
+          <t>Integrative Sequencing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>if we started to look at all the things in Pompeii and Herculaneum, what objects may be showing Greek design? Or Egyptian design? Or Greek mythology? Or Egyptian mythology? Or what building techniques like columns?</t>
+          <t>Curtsey while you’re thinking what to say. It saves time</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The use of the linkage word 'if' sets up a conditional scenario, suggesting a hypothetical situation where we examine objects in Pompeii and Herculaneum. The subsequent questions introduced by the word 'Or' present multiple possibilities or alternatives related to the initial scenario. This structure indicates how meanings from different passages shape one another, as each question builds upon the previous one, exploring different facets of the initial hypothetical situation. The use of 'Or' repeatedly emphasizes the various possibilities and alternatives, linking them together in a horizontal sequence.</t>
+          <t>The use of the linkage word 'It' refers back to previously mentioned sentence.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>If</t>
+          <t>It</t>
         </is>
       </c>
     </row>
@@ -647,27 +647,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Horizontal Sequencing</t>
+          <t>Vertical Sequencing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Consequential Sequencing</t>
+          <t>Integrative Sequencing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>There is nothing wrong with going back to your Year 11 information on bath houses, because the activities that happened in one bath house generally happened in every other bath house.</t>
+          <t>First we need to build a tool to do it. This involves a lot of work.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The example uses the word 'because' to link passages, creating relations among them and adding meanings of their own.</t>
+          <t>The use of the linkage word 'This' refers back to previously mentioned sentence.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>This</t>
         </is>
       </c>
     </row>
@@ -689,17 +689,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Do, you know, are the themes of their artwork reflecting it? So it’s saying remember when we started, we said that Pompeii had originally been settled by Greeks? Okay?</t>
+          <t>electrons can move to higher energy states by absorbing energy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The example uses the word 'so', creating relations among them and adding meanings of their own.</t>
+          <t>The example indicates a cause-and-effect relationship between two passages. The cause is 'absorbing energy,' and the effect or consequence is 'electrons can move to higher energy states.' The linker 'by' in this context signifies the reason or method by which the action (movement to higher energy states) occurs, establishing a consequential relationship between the two ideas.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>So</t>
+          <t>then</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>High-Density lipoprotein (hdl) protects the artery wall by removing cholesterol from lipidladen macrophages. However, recent evidence suggests that hdl might also inhibit atherogenesis by combating inflammation.</t>
+          <t>if we started to look at all the things in Pompeii and Herculaneum, what objects may be showing Greek design? Or Egyptian design? Or Greek mythology? Or Egyptian mythology? Or what building techniques like columns?</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The use of the linkage word 'However' introduces a contrast or additional perspective to the preceding statement. The initial statement provides a known or established function of High-Density lipoprotein (hdl) in protecting the artery wall. The subsequent statement introduced by 'However' presents a contrasting or additional piece of information, suggesting another potential function of hdl based on recent evidence. This structure indicates how the initial passage (hdl's protective function) is juxtaposed with the subsequent passage (hdl's potential anti-inflammatory role). The presence of 'by' further reinforces the example as an instance of consequential sequencing, as it provides insight into the mechanism through which hdl offers protection to the artery wall.</t>
+          <t>The use of the linkage word 'if' sets up a conditional scenario, suggesting a hypothetical situation where we examine objects in Pompeii and Herculaneum. The subsequent questions introduced by the word 'Or' present multiple possibilities or alternatives related to the initial scenario. This structure indicates how meanings from different passages shape one another, as each question builds upon the previous one, exploring different facets of the initial hypothetical situation. The use of 'Or' repeatedly emphasizes the various possibilities and alternatives, linking them together in a horizontal sequence.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>However</t>
+          <t>If</t>
         </is>
       </c>
     </row>
@@ -753,17 +753,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>if we look at where Italy is, it’s not that far from Egypt at this time</t>
+          <t>There is nothing wrong with going back to your Year 11 information on bath houses, because the activities that happened in one bath house generally happened in every other bath house.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The use of the linkage word 'if' sets up a conditional scenario, suggesting a hypothetical situation where we consider Italy's geographical location in relation to Egypt. The statement that follows the 'if' condition ('it’s not that far from Egypt at this time') provides a consequence or result of the initial condition. This structure indicates how meanings from the initial passage (looking at Italy's location) shape the subsequent passage (its proximity to Egypt). The relationship between the two passages is established horizontally, with the second passage building upon the premise set by the first, without necessarily condensing or subsuming the meanings of the first passage.</t>
+          <t>The example uses the word 'because' to link passages, creating relations among them and adding meanings of their own.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>If</t>
+          <t>because</t>
         </is>
       </c>
     </row>
@@ -785,17 +785,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>It doesn’t always have to be eight, but atoms would like to have eight.</t>
+          <t>Do, you know, are the themes of their artwork reflecting it? So it’s saying remember when we started, we said that Pompeii had originally been settled by Greeks? Okay?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The example presents a contrast between two statements. The first part, 'It doesn’t always have to be eight,' sets up an initial condition or statement. The linker 'but' introduces a concession or counter-expectancy, indicating a contrast or exception to the initial statement. The second part, 'atoms would like to have eight,' provides the contrasting preference or tendency of atoms. The use of 'but' establishes a consequential relationship between the two ideas, highlighting the difference between a general condition and a specific preference.</t>
+          <t>The example uses the word 'so', creating relations among them and adding meanings of their own.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>So</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>To identify potential anti-inflammatory mechanisms we challenged macrophages with lipopolysaccharide, an inflammatory microbial ligand for Toll-like receptor 4.</t>
+          <t>High-Density lipoprotein (hdl) protects the artery wall by removing cholesterol from lipidladen macrophages. However, recent evidence suggests that hdl might also inhibit atherogenesis by combating inflammation.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The use of the linkage word 'To' sets up a purpose or objective, specifically outlining the goal of identifying potential anti-inflammatory mechanisms. The statement that follows ('we challenged macrophages with lipopolysaccharide, an inflammatory microbial ligand for Toll-like receptor 4') provides the method or action taken to achieve or address the stated purpose. This structure indicates how the initial passage (the purpose of identifying anti-inflammatory mechanisms) shapes or leads to the subsequent passage, which provides details on the experimental approach taken.</t>
+          <t>The use of the linkage word 'However' introduces a contrast or additional perspective to the preceding statement. The initial statement provides a known or established function of High-Density lipoprotein (hdl) in protecting the artery wall. The subsequent statement introduced by 'However' presents a contrasting or additional piece of information, suggesting another potential function of hdl based on recent evidence. This structure indicates how the initial passage (hdl's protective function) is juxtaposed with the subsequent passage (hdl's potential anti-inflammatory role). The presence of 'by' further reinforces the example as an instance of consequential sequencing, as it provides insight into the mechanism through which hdl offers protection to the artery wall.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>However</t>
         </is>
       </c>
     </row>
@@ -849,17 +849,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>This column is going to be very small because it’s just a number.</t>
+          <t>if we look at where Italy is, it’s not that far from Egypt at this time</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The example establishes a cause-and-effect relationship between two statements. The cause or reason is provided by the segment 'it’s just a number,' and the effect or result is 'This column is going to be very small.'' The linker 'because' explicitly indicates the reason for the column's size, making the relationship between the two ideas consequential. The size of the column (effect) is directly influenced by its content being just a number (cause).</t>
+          <t>The use of the linkage word 'if' sets up a conditional scenario, suggesting a hypothetical situation where we consider Italy's geographical location in relation to Egypt. The statement that follows the 'if' condition ('it’s not that far from Egypt at this time') provides a consequence or result of the initial condition. This structure indicates how meanings from the initial passage (looking at Italy's location) shape the subsequent passage (its proximity to Egypt). The relationship between the two passages is established horizontally, with the second passage building upon the premise set by the first, without necessarily condensing or subsuming the meanings of the first passage.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>If</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you are disappointed with the number, then it means you probably could have tried a little bit harder, </t>
+          <t>It doesn’t always have to be eight, but atoms would like to have eight.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The example establishes a conditional cause-and-effect relationship. The conditional cause is 'you are disappointed with the number,' and the effect or result of that condition being met is 'it means you probably could have tried a little bit harder.' The linkers 'If' and 'then' work together to form a consequential sequence, indicating that the realization or feeling of disappointment (cause) leads to the conclusion or implication about one's effort (effect)</t>
+          <t>The example presents a contrast between two statements. The first part, 'It doesn’t always have to be eight,' sets up an initial condition or statement. The linker 'but' introduces a concession or counter-expectancy, indicating a contrast or exception to the initial statement. The second part, 'atoms would like to have eight,' provides the contrasting preference or tendency of atoms. The use of 'but' establishes a consequential relationship between the two ideas, highlighting the difference between a general condition and a specific preference.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>If ... then</t>
+          <t>but</t>
         </is>
       </c>
     </row>
@@ -913,15 +913,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you are disappointed with the number, then it means you probably could have tried a little bit harder, </t>
+          <t>To identify potential anti-inflammatory mechanisms we challenged macrophages with lipopolysaccharide, an inflammatory microbial ligand for Toll-like receptor 4.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The example implies a cause-and-effect relationship between the two statements. The action 'We went slowly' (effect) is a result of the intention or reason 'We wanted to make it easy for them' (cause). Even though an explicit linker like 'because' or 'so' isn't used, the context suggests that the decision to go slowly was influenced by the desire to make things easy for 'them.'' The sequence of actions and intentions presented makes the relationship between the two ideas consequential.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>The use of the linkage word 'To' sets up a purpose or objective, specifically outlining the goal of identifying potential anti-inflammatory mechanisms. The statement that follows ('we challenged macrophages with lipopolysaccharide, an inflammatory microbial ligand for Toll-like receptor 4') provides the method or action taken to achieve or address the stated purpose. This structure indicates how the initial passage (the purpose of identifying anti-inflammatory mechanisms) shapes or leads to the subsequent passage, which provides details on the experimental approach taken.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -936,22 +940,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sequential Sequencing</t>
+          <t>Consequential Sequencing</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>You have to read it and then you’re asked some questions</t>
+          <t>This column is going to be very small because it’s just a number.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>This example indicates a clear temporal order of events: first, there's the action of reading, followed by the action of being asked questions. The use of 'and then' adds only a temporal relation between the two passages, emphasizing the sequence in which the events occur.</t>
+          <t>The example establishes a cause-and-effect relationship between two statements. The cause or reason is provided by the segment 'it’s just a number,' and the effect or result is 'This column is going to be very small.'' The linker 'because' explicitly indicates the reason for the column's size, making the relationship between the two ideas consequential. The size of the column (effect) is directly influenced by its content being just a number (cause).</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>and then</t>
+          <t>because</t>
         </is>
       </c>
     </row>
@@ -968,22 +972,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sequential Sequencing</t>
+          <t>Consequential Sequencing</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The corn is fried and then added to the mix.</t>
+          <t xml:space="preserve">If you are disappointed with the number, then it means you probably could have tried a little bit harder, </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">The example uses the word 'and then', which marks an ordering of events and specifies a temporal relation between two events: first, the corn is fried, and subsequently, it is added to the mix. </t>
+          <t>The example establishes a conditional cause-and-effect relationship. The conditional cause is 'you are disappointed with the number,' and the effect or result of that condition being met is 'it means you probably could have tried a little bit harder.' The linkers 'If' and 'then' work together to form a consequential sequence, indicating that the realization or feeling of disappointment (cause) leads to the conclusion or implication about one's effort (effect)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>then</t>
+          <t>If ... then</t>
         </is>
       </c>
     </row>
@@ -1005,17 +1009,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Place the potatoes in the oven. Bake for thirty minutes.</t>
+          <t>You have to read it and then you’re asked some questions</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The example is a sequential sequence because it presents a clear order of actions to be followed. The first action is placing the potatoes in the oven, and the subsequent action is baking them for a specified duration. The ordering of these actions, without the need for explicit linkers, demonstrates a temporal progression, characteristic of sequential sequencing</t>
+          <t>This example indicates a clear temporal order of events: first, there's the action of reading, followed by the action of being asked questions. The use of 'and then' adds only a temporal relation between the two passages, emphasizing the sequence in which the events occur.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>then</t>
+          <t>and then</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1041,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>he worked late at night before sleeping in until lunchtime</t>
+          <t>The corn is fried and then added to the mix.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The example indicates an ordering of events based on time. The linker 'before' is used to establish a temporal relation between two actions: first, 'he worked late at night,'' and subsequently, he 'slept in until lunchtime.'' The use of the linker 'before' specifies the sequence in which the events occurred, making the relationship between the two actions sequential.</t>
+          <t xml:space="preserve">The example uses the word 'and then', which marks an ordering of events and specifies a temporal relation between two events: first, the corn is fried, and subsequently, it is added to the mix. </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>then</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1073,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Egypt is part of the Roman Empire. So there would be massive amounts of trade going on,</t>
+          <t>Place the potatoes in the oven. Bake for thirty minutes.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The use of the linkage word 'So' introduces a consequence or result based on the premise provided in the preceding statement. The initial statement ('Egypt is part of the Roman Empire') sets up a fact or context. The subsequent statement introduced by 'So' ('there would be massive amounts of trade going on') provides a logical outcome or implication of the initial fact. This structure indicates how meanings from the initial passage (Egypt being part of the Roman Empire) shape or lead to the subsequent passage (the implication of significant trade). The relationship between the two passages is established horizontally, with the second passage providing a consequence or elaboration based on the premise set by the first, without necessarily condensing or subsuming the meanings of the first passage.</t>
+          <t>The example is a sequential sequence because it presents a clear order of actions to be followed. The first action is placing the potatoes in the oven, and the subsequent action is baking them for a specified duration. The ordering of these actions, without the need for explicit linkers, demonstrates a temporal progression, characteristic of sequential sequencing</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>So</t>
+          <t>then</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1105,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>You only have to do it one day, and then you’ve done your service.</t>
+          <t>he worked late at night before sleeping in until lunchtime</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The example presents a clear order of events. The action 'do it one day' precedes the outcome 'you’ve done your service.' The linker 'and then' establishes a temporal progression between the two events, indicating that after completing the action on that one day, the service is considered done.</t>
+          <t>The example indicates an ordering of events based on time. The linker 'before' is used to establish a temporal relation between two actions: first, 'he worked late at night,'' and subsequently, he 'slept in until lunchtime.'' The use of the linker 'before' specifies the sequence in which the events occurred, making the relationship between the two actions sequential.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>and then</t>
+          <t>before</t>
         </is>
       </c>
     </row>
@@ -1133,17 +1137,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>he worked late at night before sleeping in until lunchtime without attending lectures.</t>
+          <t>Egypt is part of the Roman Empire. So there would be massive amounts of trade going on,</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>The example presents a series of events in a specific order. The sequence of events is as follows: 1) 'He worked late at night' - The first event.; 2) 'before sleeping in until lunchtime' - The event that follows working late, indicating a temporal progression.; 3) 'without attending lectures' - An additional event or consequence that occurred simultaneously with or as a result of sleeping in. The linker 'before' help establish the temporal and causal relationships between these events</t>
+          <t>The use of the linkage word 'So' introduces a consequence or result based on the premise provided in the preceding statement. The initial statement ('Egypt is part of the Roman Empire') sets up a fact or context. The subsequent statement introduced by 'So' ('there would be massive amounts of trade going on') provides a logical outcome or implication of the initial fact. This structure indicates how meanings from the initial passage (Egypt being part of the Roman Empire) shape or lead to the subsequent passage (the implication of significant trade). The relationship between the two passages is established horizontally, with the second passage providing a consequence or elaboration based on the premise set by the first, without necessarily condensing or subsuming the meanings of the first passage.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>So</t>
         </is>
       </c>
     </row>
@@ -1165,17 +1169,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>He took the mark and kicked the goal</t>
+          <t>You only have to do it one day, and then you’ve done your service.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The example describes two events in a specific order. First, 'He took the mark,' and then he 'kicked the goal.' The conjunction 'and' indicates a progression of events, marking the sequence in which they occurred.</t>
+          <t>The example presents a clear order of events. The action 'do it one day' precedes the outcome 'you’ve done your service.' The linker 'and then' establishes a temporal progression between the two events, indicating that after completing the action on that one day, the service is considered done.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>and then</t>
         </is>
       </c>
     </row>
@@ -1197,77 +1201,81 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>he liked rocking backwards and forwards in his chair, whilst thinking, until the whole building shook.</t>
+          <t>he worked late at night before sleeping in until lunchtime without attending lectures.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>This example is a sequential sequence because it presents a series of events or actions in a specific temporal order. A sequential relation is set up between rocking and thinking, and then another between this sequence and until the building shook. The linkers 'whilst' and 'until' help establish the temporal progression and simultaneous occurrence of these events, marking the sequence in which they took place or co-occurred.</t>
+          <t>The example presents a series of events in a specific order. The sequence of events is as follows: 1) 'He worked late at night' - The first event.; 2) 'before sleeping in until lunchtime' - The event that follows working late, indicating a temporal progression.; 3) 'without attending lectures' - An additional event or consequence that occurred simultaneously with or as a result of sleeping in. The linker 'before' help establish the temporal and causal relationships between these events</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>whilst, until</t>
+          <t>before</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Segmental Sequencing</t>
+          <t>Cumulative Sequencing</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compartmental Sequencing</t>
+          <t>Horizontal Sequencing</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Incoherent Sequencing</t>
+          <t>Sequential Sequencing</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The scale is red, orange, yellow, green, blue, indigo, violet. David—where’s your gear?</t>
+          <t>He took the mark and kicked the goal</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>The passages are not linked and are on unrelated topics, disrupting the focus of discussion.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>The example describes two events in a specific order. First, 'He took the mark,' and then he 'kicked the goal.' The conjunction 'and' indicates a progression of events, marking the sequence in which they occurred.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Segmental Sequencing</t>
+          <t>Cumulative Sequencing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compartmental Sequencing</t>
+          <t>Horizontal Sequencing</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Incoherent Sequencing</t>
+          <t>Sequential Sequencing</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>When you get trade in ideas—you wouldn’t have heard this word before—we call it aesthetic trade</t>
+          <t>he liked rocking backwards and forwards in his chair, whilst thinking, until the whole building shook.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>This example juxtaposes two passages that are epistemologically unrelated. The first part discusses the concept of 'trade in ideas', while the interjection 'you wouldn’t have heard this word before' breaks the flow and introduces a commentary on the listener's potential unfamiliarity with the term.</t>
+          <t>This example is a sequential sequence because it presents a series of events or actions in a specific temporal order. A sequential relation is set up between rocking and thinking, and then another between this sequence and until the building shook. The linkers 'whilst' and 'until' help establish the temporal progression and simultaneous occurrence of these events, marking the sequence in which they took place or co-occurred.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>When</t>
+          <t>whilst, until</t>
         </is>
       </c>
     </row>
@@ -1289,19 +1297,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>It doesn’t look like this arrangement here. |INC So we’ll just turn the lights on again INC|. It doesn’t look like a full spectrum up here</t>
+          <t>The scale is red, orange, yellow, green, blue, indigo, violet. David—where’s your gear?</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>incoherent because the middle clause 'So we’ll just turn the lights on again' interrupts the flow of the topic being discussed.  the middle statement about turning the lights on seems unrelated to the surrounding context and introduces a different topic without a clear connection to the preceding or following statement. The use of the continuative 'So' further emphasizes this sudden shift in topic</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>So</t>
-        </is>
-      </c>
+          <t>The passages are not linked and are on unrelated topics, disrupting the focus of discussion.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1316,22 +1320,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Coherent Sequencing</t>
+          <t>Incoherent Sequencing</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>you’ve got a written source and you’ve got a picture source</t>
+          <t>When you get trade in ideas—you wouldn’t have heard this word before—we call it aesthetic trade</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>This example coherent because it presents two related pieces of information in a continuous manner using the linker 'and.' The two clauses provide information about different types of sources without introducing contrasting, causal, or repetitive elements. The simple conjunction 'and' connects the two ideas, offering a smooth and straightforward continuity between them</t>
+          <t>This example juxtaposes two passages that are epistemologically unrelated. The first part discusses the concept of 'trade in ideas', while the interjection 'you wouldn’t have heard this word before' breaks the flow and introduces a commentary on the listener's potential unfamiliarity with the term.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>When</t>
         </is>
       </c>
     </row>
@@ -1348,22 +1352,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Coherent Sequencing</t>
+          <t>Incoherent Sequencing</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>We’re very pleased to open our season with a win. We made sure they couldn’t run their attack and we managed to hold them down.</t>
+          <t>It doesn’t look like this arrangement here. |INC So we’ll just turn the lights on again INC|. It doesn’t look like a full spectrum up here</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Includes two instances of coherent sequencing, one where ‘and’ could be inserted to connect the two sentences and one where ‘and’ explicitly indicates continuity, maintaining the focus of discussion.</t>
+          <t>incoherent because the middle clause 'So we’ll just turn the lights on again' interrupts the flow of the topic being discussed.  the middle statement about turning the lights on seems unrelated to the surrounding context and introduces a different topic without a clear connection to the preceding or following statement. The use of the continuative 'So' further emphasizes this sudden shift in topic</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>So</t>
         </is>
       </c>
     </row>
@@ -1385,15 +1389,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Let us look at the example of element carbon in its ground (least energetic) state. It has 6 electrons.</t>
+          <t>you’ve got a written source and you’ve got a picture source</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>The example is coherent because it offers continuity in the subject matter without explicitly using linkers to establish relationships like cause-effect, contrast, or repetition. The two sentences naturally flow from one to the next, with the second sentence providing additional information about the carbon element mentioned in the first. The absence of explicit linkers or referring items and the smooth transition from one idea to the next make this sequence coherent.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>This example coherent because it presents two related pieces of information in a continuous manner using the linker 'and.' The two clauses provide information about different types of sources without introducing contrasting, causal, or repetitive elements. The simple conjunction 'and' connects the two ideas, offering a smooth and straightforward continuity between them</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1413,12 +1421,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>hdl inhibits a subset of lipopolysaccharide-stimulated macrophage genes that regulate the type I interferon response, and it's action is independent of sterol metabolism.</t>
+          <t>We’re very pleased to open our season with a win. We made sure they couldn’t run their attack and we managed to hold them down.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The example maintains coherence through the conjunction 'and', which links two related actions of 'hdl', ensuring continuity and focus on the properties and actions of hdl throughout the sentence.</t>
+          <t>Includes two instances of coherent sequencing, one where ‘and’ could be inserted to connect the two sentences and one where ‘and’ explicitly indicates continuity, maintaining the focus of discussion.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1435,22 +1443,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sedimental Sequencing</t>
+          <t>Compartmental Sequencing</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Reiterative Sequencing</t>
+          <t>Coherent Sequencing</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Most of them weren’t deflected at all? They weren’t deflected at all.</t>
+          <t>Let us look at the example of element carbon in its ground (least energetic) state. It has 6 electrons.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>The example is reiterative because the same meaning is expressed twice, albeit with slight variation. The first part mentions 'Most of them' while the second part generalizes with 'They.' Both parts emphasize the fact that they 'weren't deflected at all.' The repetition serves to reinforce and restate the initial information, making it a reiterative sequence.</t>
+          <t>The example is coherent because it offers continuity in the subject matter without explicitly using linkers to establish relationships like cause-effect, contrast, or repetition. The two sentences naturally flow from one to the next, with the second sentence providing additional information about the carbon element mentioned in the first. The absence of explicit linkers or referring items and the smooth transition from one idea to the next make this sequence coherent.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1463,27 +1471,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sedimental Sequencing</t>
+          <t>Compartmental Sequencing</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Reiterative Sequencing</t>
+          <t>Coherent Sequencing</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>I don’t think it’s a good idea for us. That is, we shouldn’t go.</t>
+          <t>hdl inhibits a subset of lipopolysaccharide-stimulated macrophage genes that regulate the type I interferon response, and it's action is independent of sterol metabolism.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The example presents the same meaning in two different ways. The first statement expresses a negative opinion about an idea, while the second statement clarifies or reiterates that sentiment more directly by suggesting not to go. The phrase 'That is' serves as a cue for the reiteration, essentially saying 'in other words' to emphasize and clarify the initial statement.</t>
+          <t>The example maintains coherence through the conjunction 'and', which links two related actions of 'hdl', ensuring continuity and focus on the properties and actions of hdl throughout the sentence.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>That is</t>
+          <t>and</t>
         </is>
       </c>
     </row>
@@ -1505,12 +1513,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">it doesn’t look like this arrangement here. It doesn’t look like a full spectrum up here. </t>
+          <t>Most of them weren’t deflected at all? They weren’t deflected at all.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The example conveys a similar meaning in two different ways. Both statements emphasize that 'it' doesn't resemble something, first referring to 'this arrangement here' and then to 'a full spectrum up here.'</t>
+          <t>The example is reiterative because the same meaning is expressed twice, albeit with slight variation. The first part mentions 'Most of them' while the second part generalizes with 'They.' Both parts emphasize the fact that they 'weren't deflected at all.' The repetition serves to reinforce and restate the initial information, making it a reiterative sequence.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1528,20 +1536,80 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Reiterative Sequencing</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>I don’t think it’s a good idea for us. That is, we shouldn’t go.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>The example presents the same meaning in two different ways. The first statement expresses a negative opinion about an idea, while the second statement clarifies or reiterates that sentiment more directly by suggesting not to go. The phrase 'That is' serves as a cue for the reiteration, essentially saying 'in other words' to emphasize and clarify the initial statement.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>That is</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Segmental Sequencing</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sedimental Sequencing</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Reiterative Sequencing</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it doesn’t look like this arrangement here. It doesn’t look like a full spectrum up here. </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>The example conveys a similar meaning in two different ways. Both statements emphasize that 'it' doesn't resemble something, first referring to 'this arrangement here' and then to 'a full spectrum up here.'</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Segmental Sequencing</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sedimental Sequencing</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Repetitive Sequencing</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Most of them weren’t deflected at all? They weren’t deflected at all.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>The example is repetitive because the two clauses are practically identical, conveying the exact same information without any variation or additional meaning.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
